--- a/REGULAR/DAÑO, ALMA.xlsx
+++ b/REGULAR/DAÑO, ALMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDFE8A7-4FEF-43B4-BE86-BA66C4132F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56DA047-08C9-4CB7-BEF4-B20EF2C154A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="126">
   <si>
     <t>PERIOD</t>
   </si>
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t>1/30,31/2023</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>1 - Married (and not separated)</t>
   </si>
 </sst>
 </file>
@@ -3226,8 +3232,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A152" activePane="bottomLeft"/>
-      <selection activeCell="M8" sqref="M8"/>
-      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3257,7 +3263,9 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
+      <c r="F2" s="59" t="s">
+        <v>125</v>
+      </c>
       <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
@@ -3270,7 +3278,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="52" t="s">
+        <v>124</v>
+      </c>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3388,7 +3398,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.072000000000003</v>
+        <v>33.322000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3398,7 +3408,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.75</v>
+        <v>48</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6789,19 +6799,25 @@
       <c r="A162" s="40">
         <v>44986</v>
       </c>
-      <c r="B162" s="20"/>
-      <c r="C162" s="13"/>
+      <c r="B162" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C162" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D162" s="39"/>
       <c r="E162" s="9"/>
       <c r="F162" s="20"/>
-      <c r="G162" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G162" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H162" s="39"/>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="20"/>
+      <c r="K162" s="49">
+        <v>45012</v>
+      </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">

--- a/REGULAR/DAÑO, ALMA.xlsx
+++ b/REGULAR/DAÑO, ALMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56DA047-08C9-4CB7-BEF4-B20EF2C154A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB218E6-52FE-4545-9314-3EE3F87BD136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="126">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2850,7 +2850,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K194" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3228,12 +3228,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K194"/>
+  <dimension ref="A2:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A152" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
+      <selection pane="bottomLeft" activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3408,7 +3408,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6823,7 +6823,9 @@
       <c r="A163" s="40">
         <v>45017</v>
       </c>
-      <c r="B163" s="20"/>
+      <c r="B163" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C163" s="13"/>
       <c r="D163" s="39"/>
       <c r="E163" s="9"/>
@@ -6835,13 +6837,15 @@
       <c r="H163" s="39"/>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
-      <c r="K163" s="20"/>
+      <c r="K163" s="49">
+        <v>45041</v>
+      </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B164" s="20"/>
+      <c r="A164" s="40"/>
+      <c r="B164" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C164" s="13"/>
       <c r="D164" s="39"/>
       <c r="E164" s="9"/>
@@ -6850,14 +6854,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H164" s="39"/>
+      <c r="H164" s="39">
+        <v>1</v>
+      </c>
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
-      <c r="K164" s="20"/>
+      <c r="K164" s="49">
+        <v>45029</v>
+      </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6875,7 +6883,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6893,7 +6901,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6911,7 +6919,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6929,7 +6937,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6947,7 +6955,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6965,7 +6973,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6983,7 +6991,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -7001,7 +7009,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -7019,7 +7027,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -7037,7 +7045,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -7055,7 +7063,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -7073,7 +7081,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -7091,7 +7099,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -7109,7 +7117,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -7127,7 +7135,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -7145,7 +7153,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -7163,7 +7171,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -7181,7 +7189,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -7199,7 +7207,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -7217,7 +7225,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -7235,7 +7243,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -7252,7 +7260,9 @@
       <c r="K186" s="20"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187" s="40"/>
+      <c r="A187" s="40">
+        <v>45717</v>
+      </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
       <c r="D187" s="39"/>
@@ -7364,20 +7374,36 @@
       <c r="K193" s="20"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A194" s="41"/>
-      <c r="B194" s="15"/>
-      <c r="C194" s="42"/>
-      <c r="D194" s="43"/>
+      <c r="A194" s="40"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="39"/>
       <c r="E194" s="9"/>
-      <c r="F194" s="15"/>
-      <c r="G194" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H194" s="43"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H194" s="39"/>
       <c r="I194" s="9"/>
-      <c r="J194" s="12"/>
-      <c r="K194" s="15"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="20"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="41"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="43"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H195" s="43"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/DAÑO, ALMA.xlsx
+++ b/REGULAR/DAÑO, ALMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB218E6-52FE-4545-9314-3EE3F87BD136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E632BE4-C7A9-418D-BE7E-E9DBD79B2A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
   <si>
     <t>PERIOD</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>1 - Married (and not separated)</t>
+  </si>
+  <si>
+    <t>5/16-17/2023</t>
   </si>
 </sst>
 </file>
@@ -2833,7 +2836,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2850,7 +2853,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K196" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3228,12 +3231,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K195"/>
+  <dimension ref="A2:K196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A152" activePane="bottomLeft"/>
+      <pane ySplit="3576" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B165" sqref="B165"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3398,7 +3401,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>33.322000000000003</v>
+        <v>35.822000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3408,7 +3411,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6826,13 +6829,15 @@
       <c r="B163" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C163" s="13"/>
+      <c r="C163" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D163" s="39"/>
       <c r="E163" s="9"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G163" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H163" s="39"/>
       <c r="I163" s="9"/>
@@ -6867,25 +6872,33 @@
       <c r="A165" s="40">
         <v>45047</v>
       </c>
-      <c r="B165" s="20"/>
-      <c r="C165" s="13"/>
+      <c r="B165" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C165" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D165" s="39"/>
       <c r="E165" s="9"/>
       <c r="F165" s="20"/>
-      <c r="G165" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H165" s="39"/>
+      <c r="G165" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H165" s="39">
+        <v>2</v>
+      </c>
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
-      <c r="K165" s="20"/>
+      <c r="K165" s="20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B166" s="20"/>
+      <c r="A166" s="40"/>
+      <c r="B166" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C166" s="13"/>
       <c r="D166" s="39"/>
       <c r="E166" s="9"/>
@@ -6897,11 +6910,13 @@
       <c r="H166" s="39"/>
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
-      <c r="K166" s="20"/>
+      <c r="K166" s="49">
+        <v>45082</v>
+      </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6919,7 +6934,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6937,7 +6952,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6955,7 +6970,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6973,7 +6988,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6991,7 +7006,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -7009,7 +7024,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -7027,7 +7042,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -7045,7 +7060,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -7063,7 +7078,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -7081,7 +7096,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -7099,7 +7114,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -7117,7 +7132,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -7135,7 +7150,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -7153,7 +7168,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -7171,7 +7186,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -7189,7 +7204,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -7207,7 +7222,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -7225,7 +7240,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -7243,7 +7258,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -7261,7 +7276,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -7278,7 +7293,9 @@
       <c r="K187" s="20"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A188" s="40"/>
+      <c r="A188" s="40">
+        <v>45717</v>
+      </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
       <c r="D188" s="39"/>
@@ -7390,20 +7407,36 @@
       <c r="K194" s="20"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A195" s="41"/>
-      <c r="B195" s="15"/>
-      <c r="C195" s="42"/>
-      <c r="D195" s="43"/>
+      <c r="A195" s="40"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="39"/>
       <c r="E195" s="9"/>
-      <c r="F195" s="15"/>
-      <c r="G195" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H195" s="43"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H195" s="39"/>
       <c r="I195" s="9"/>
-      <c r="J195" s="12"/>
-      <c r="K195" s="15"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="20"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="41"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="43"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H196" s="43"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/DAÑO, ALMA.xlsx
+++ b/REGULAR/DAÑO, ALMA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E632BE4-C7A9-418D-BE7E-E9DBD79B2A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="127">
   <si>
     <t>PERIOD</t>
   </si>
@@ -444,7 +443,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -885,7 +884,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -960,7 +958,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1028,7 +1025,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1270,7 +1266,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1318,7 +1313,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1356,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +1420,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1480,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1546,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1609,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,7 +1707,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1766,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1831,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1874,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1949,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2135,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2201,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2259,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2325,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2381,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2456,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2499,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2565,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2621,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2719,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2782,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2831,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2853,25 +2848,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K196" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K197" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2883,13 +2878,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2898,14 +2893,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3209,7 +3204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3219,7 +3214,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3227,34 +3222,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K196"/>
+  <dimension ref="A2:K197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A151" activePane="bottomLeft"/>
+      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3277,7 +3272,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3297,7 +3292,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3319,7 +3314,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3327,7 +3322,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3340,7 +3335,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3357,7 +3352,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3392,7 +3387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3401,7 +3396,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>35.822000000000003</v>
+        <v>34.822000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3411,12 +3406,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47.5</v>
+        <v>46.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3436,7 +3431,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>45</v>
       </c>
@@ -3454,7 +3449,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>42370</v>
       </c>
@@ -3480,7 +3475,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>42401</v>
       </c>
@@ -3500,7 +3495,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>42430</v>
       </c>
@@ -3524,7 +3519,7 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>42461</v>
       </c>
@@ -3548,7 +3543,7 @@
         <v>42485</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="15" t="s">
         <v>48</v>
@@ -3570,7 +3565,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="15" t="s">
         <v>46</v>
@@ -3592,7 +3587,7 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="15" t="s">
         <v>50</v>
@@ -3614,7 +3609,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>42491</v>
       </c>
@@ -3640,7 +3635,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="15" t="s">
         <v>53</v>
@@ -3662,7 +3657,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>42522</v>
       </c>
@@ -3682,7 +3677,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>42552</v>
       </c>
@@ -3708,7 +3703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>42583</v>
       </c>
@@ -3734,7 +3729,7 @@
         <v>42621</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>42614</v>
       </c>
@@ -3758,7 +3753,7 @@
         <v>42642</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>56</v>
@@ -3780,7 +3775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>56</v>
@@ -3802,7 +3797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>42644</v>
       </c>
@@ -3828,7 +3823,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>48</v>
@@ -3848,7 +3843,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>42675</v>
       </c>
@@ -3874,7 +3869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>46</v>
@@ -3896,7 +3891,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>56</v>
@@ -3916,7 +3911,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>42705</v>
       </c>
@@ -3936,7 +3931,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>61</v>
       </c>
@@ -3954,7 +3949,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>42736</v>
       </c>
@@ -3978,7 +3973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>64</v>
@@ -4000,7 +3995,7 @@
         <v>42400</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>65</v>
@@ -4020,7 +4015,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="49"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>42767</v>
       </c>
@@ -4046,7 +4041,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>67</v>
@@ -4066,7 +4061,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>42795</v>
       </c>
@@ -4092,7 +4087,7 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>64</v>
@@ -4114,7 +4109,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>68</v>
@@ -4134,7 +4129,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="49"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>42826</v>
       </c>
@@ -4160,7 +4155,7 @@
         <v>42830</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>46</v>
@@ -4182,7 +4177,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>46</v>
@@ -4204,7 +4199,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>69</v>
@@ -4224,7 +4219,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>42856</v>
       </c>
@@ -4250,7 +4245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -4274,7 +4269,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>73</v>
@@ -4294,7 +4289,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>42887</v>
       </c>
@@ -4320,7 +4315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>75</v>
@@ -4340,7 +4335,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>42917</v>
       </c>
@@ -4366,7 +4361,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>46</v>
@@ -4388,7 +4383,7 @@
         <v>42933</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>77</v>
@@ -4410,7 +4405,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>79</v>
@@ -4430,7 +4425,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>42948</v>
       </c>
@@ -4454,7 +4449,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>42979</v>
       </c>
@@ -4478,7 +4473,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>81</v>
@@ -4498,7 +4493,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43009</v>
       </c>
@@ -4522,7 +4517,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>82</v>
@@ -4542,7 +4537,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43040</v>
       </c>
@@ -4562,7 +4557,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43070</v>
       </c>
@@ -4588,7 +4583,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>56</v>
@@ -4610,7 +4605,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>48</v>
@@ -4632,7 +4627,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>84</v>
       </c>
@@ -4650,7 +4645,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>43101</v>
       </c>
@@ -4676,7 +4671,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>43132</v>
       </c>
@@ -4702,7 +4697,7 @@
         <v>43154</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>43160</v>
       </c>
@@ -4726,7 +4721,7 @@
         <v>43185</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>46</v>
@@ -4748,7 +4743,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>43191</v>
       </c>
@@ -4774,7 +4769,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>47</v>
@@ -4794,7 +4789,7 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>43221</v>
       </c>
@@ -4820,7 +4815,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>64</v>
@@ -4842,7 +4837,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>88</v>
@@ -4862,7 +4857,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="49"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>43252</v>
       </c>
@@ -4886,7 +4881,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>46</v>
@@ -4908,7 +4903,7 @@
         <v>43248</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>46</v>
@@ -4928,7 +4923,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="49"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>89</v>
@@ -4948,7 +4943,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="49"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>43282</v>
       </c>
@@ -4972,7 +4967,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>43313</v>
       </c>
@@ -4998,7 +4993,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>92</v>
@@ -5018,7 +5013,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>43344</v>
       </c>
@@ -5044,7 +5039,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>94</v>
@@ -5064,7 +5059,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>43374</v>
       </c>
@@ -5090,7 +5085,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>46</v>
@@ -5112,7 +5107,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>96</v>
@@ -5132,7 +5127,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>43405</v>
       </c>
@@ -5158,7 +5153,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>56</v>
@@ -5180,7 +5175,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>98</v>
@@ -5200,7 +5195,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="49"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>43435</v>
       </c>
@@ -5226,7 +5221,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>46</v>
@@ -5248,7 +5243,7 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>99</v>
@@ -5268,7 +5263,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>100</v>
       </c>
@@ -5286,7 +5281,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>43466</v>
       </c>
@@ -5306,7 +5301,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>43497</v>
       </c>
@@ -5326,7 +5321,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>43525</v>
       </c>
@@ -5352,7 +5347,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>47</v>
@@ -5372,7 +5367,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>47</v>
@@ -5392,7 +5387,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>43556</v>
       </c>
@@ -5412,7 +5407,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>43586</v>
       </c>
@@ -5438,7 +5433,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>43617</v>
       </c>
@@ -5462,7 +5457,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>46</v>
@@ -5484,7 +5479,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>43647</v>
       </c>
@@ -5510,7 +5505,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>50</v>
@@ -5532,7 +5527,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>43678</v>
       </c>
@@ -5552,7 +5547,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>43709</v>
       </c>
@@ -5572,7 +5567,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>43739</v>
       </c>
@@ -5598,7 +5593,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>43770</v>
       </c>
@@ -5624,7 +5619,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>43800</v>
       </c>
@@ -5644,7 +5639,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="48" t="s">
         <v>103</v>
       </c>
@@ -5662,7 +5657,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>43831</v>
       </c>
@@ -5686,7 +5681,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>43862</v>
       </c>
@@ -5710,7 +5705,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>64</v>
@@ -5732,7 +5727,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>46</v>
@@ -5754,7 +5749,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>43891</v>
       </c>
@@ -5774,7 +5769,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>43922</v>
       </c>
@@ -5794,7 +5789,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>43952</v>
       </c>
@@ -5814,7 +5809,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>43983</v>
       </c>
@@ -5834,7 +5829,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>44013</v>
       </c>
@@ -5854,7 +5849,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>44044</v>
       </c>
@@ -5874,7 +5869,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>44075</v>
       </c>
@@ -5894,7 +5889,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>44105</v>
       </c>
@@ -5914,7 +5909,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>44136</v>
       </c>
@@ -5934,7 +5929,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>44166</v>
       </c>
@@ -5958,7 +5953,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>64</v>
@@ -5980,7 +5975,7 @@
         <v>44185</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>64</v>
@@ -6002,7 +5997,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
         <v>109</v>
       </c>
@@ -6020,7 +6015,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="49"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>44197</v>
       </c>
@@ -6046,7 +6041,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>44228</v>
       </c>
@@ -6066,7 +6061,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>44256</v>
       </c>
@@ -6092,7 +6087,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>44287</v>
       </c>
@@ -6118,7 +6113,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>44317</v>
       </c>
@@ -6138,7 +6133,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>44348</v>
       </c>
@@ -6162,7 +6157,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>44378</v>
       </c>
@@ -6182,7 +6177,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>44409</v>
       </c>
@@ -6202,7 +6197,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>44440</v>
       </c>
@@ -6222,7 +6217,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>44470</v>
       </c>
@@ -6246,7 +6241,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>56</v>
@@ -6268,7 +6263,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>77</v>
@@ -6290,7 +6285,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>44501</v>
       </c>
@@ -6310,7 +6305,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>44531</v>
       </c>
@@ -6330,7 +6325,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
         <v>115</v>
       </c>
@@ -6348,7 +6343,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>44562</v>
       </c>
@@ -6368,7 +6363,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>44593</v>
       </c>
@@ -6388,7 +6383,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>44621</v>
       </c>
@@ -6412,7 +6407,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>44652</v>
       </c>
@@ -6436,7 +6431,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>44682</v>
       </c>
@@ -6456,7 +6451,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>44713</v>
       </c>
@@ -6476,7 +6471,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>44743</v>
       </c>
@@ -6496,7 +6491,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>44774</v>
       </c>
@@ -6522,7 +6517,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>47</v>
@@ -6542,7 +6537,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>44805</v>
       </c>
@@ -6568,7 +6563,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>64</v>
@@ -6590,7 +6585,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>44835</v>
       </c>
@@ -6616,7 +6611,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>44866</v>
       </c>
@@ -6642,7 +6637,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>44896</v>
       </c>
@@ -6668,7 +6663,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>121</v>
@@ -6690,7 +6685,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
         <v>119</v>
       </c>
@@ -6708,7 +6703,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>44927</v>
       </c>
@@ -6734,7 +6729,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>48</v>
@@ -6756,7 +6751,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>46</v>
@@ -6778,7 +6773,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>44958</v>
       </c>
@@ -6798,7 +6793,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>44986</v>
       </c>
@@ -6822,7 +6817,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>45017</v>
       </c>
@@ -6846,7 +6841,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>46</v>
@@ -6868,7 +6863,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>45047</v>
       </c>
@@ -6894,7 +6889,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>47</v>
@@ -6914,11 +6909,11 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B167" s="20"/>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="40"/>
+      <c r="B167" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C167" s="13"/>
       <c r="D167" s="39"/>
       <c r="E167" s="9"/>
@@ -6927,18 +6922,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H167" s="39"/>
+      <c r="H167" s="39">
+        <v>1</v>
+      </c>
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="20"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K167" s="49">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B168" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="39"/>
+      <c r="D168" s="39">
+        <v>1</v>
+      </c>
       <c r="E168" s="9"/>
       <c r="F168" s="20"/>
       <c r="G168" s="13" t="str">
@@ -6948,11 +6951,13 @@
       <c r="H168" s="39"/>
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
-      <c r="K168" s="20"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K168" s="49">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6968,9 +6973,9 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6986,9 +6991,9 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -7004,9 +7009,9 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -7022,9 +7027,9 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -7040,9 +7045,9 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -7058,9 +7063,9 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -7076,9 +7081,9 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -7094,9 +7099,9 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -7112,9 +7117,9 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -7130,9 +7135,9 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -7148,9 +7153,9 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -7166,9 +7171,9 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -7184,9 +7189,9 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -7202,9 +7207,9 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -7220,9 +7225,9 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -7238,9 +7243,9 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -7256,9 +7261,9 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -7274,9 +7279,9 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -7292,9 +7297,9 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -7310,8 +7315,10 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A189" s="40"/>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="40">
+        <v>45717</v>
+      </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
       <c r="D189" s="39"/>
@@ -7326,7 +7333,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -7342,7 +7349,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -7358,7 +7365,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -7374,7 +7381,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -7390,7 +7397,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -7406,7 +7413,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -7422,21 +7429,37 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A196" s="41"/>
-      <c r="B196" s="15"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="43"/>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="40"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="39"/>
       <c r="E196" s="9"/>
-      <c r="F196" s="15"/>
-      <c r="G196" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H196" s="43"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H196" s="39"/>
       <c r="I196" s="9"/>
-      <c r="J196" s="12"/>
-      <c r="K196" s="15"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="20"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="41"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="42"/>
+      <c r="D197" s="43"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H197" s="43"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7453,10 +7476,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7479,7 +7502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -7487,21 +7510,21 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -7514,7 +7537,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7543,7 +7566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>3.75</v>
       </c>
@@ -7573,17 +7596,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7604,7 +7627,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7631,7 +7654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7657,7 +7680,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7683,7 +7706,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7709,7 +7732,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7735,7 +7758,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7761,7 +7784,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7787,7 +7810,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7813,7 +7836,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7833,7 +7856,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7853,7 +7876,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7873,7 +7896,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7894,7 +7917,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7915,7 +7938,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7936,7 +7959,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7957,7 +7980,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7978,7 +8001,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7999,7 +8022,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8020,7 +8043,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8041,7 +8064,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8062,7 +8085,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8083,7 +8106,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8104,7 +8127,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8125,7 +8148,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8146,7 +8169,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8167,7 +8190,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8188,7 +8211,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8209,7 +8232,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8230,7 +8253,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8251,7 +8274,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8272,7 +8295,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8293,7 +8316,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8302,7 +8325,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8311,7 +8334,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8320,7 +8343,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8329,7 +8352,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8338,7 +8361,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8347,7 +8370,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8356,7 +8379,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8365,7 +8388,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8374,7 +8397,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8383,7 +8406,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8392,7 +8415,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8401,7 +8424,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8410,7 +8433,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8419,7 +8442,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8428,7 +8451,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8437,7 +8460,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8446,7 +8469,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8455,7 +8478,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8464,7 +8487,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8473,7 +8496,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8482,7 +8505,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8491,7 +8514,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8500,7 +8523,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8509,7 +8532,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8518,7 +8541,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8527,7 +8550,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8536,7 +8559,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8545,7 +8568,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8554,7 +8577,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
